--- a/data/financial_statements/sofp/CMA.xlsx
+++ b/data/financial_statements/sofp/CMA.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,637 +587,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>6439000000</v>
+      </c>
+      <c r="C2">
         <v>6129000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7693000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>13731000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>22876000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>23776000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>16684000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>15047000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>15939000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>11301000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>13464000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4993000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5973000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4263000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3721000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3617000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4695000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5975000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5794000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>6969000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5941000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6296000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5721000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>8411000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>7310000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>8132000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4210000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3096000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>6260000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>7307000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>6084000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>6063000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>6170000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>7899000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4003000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5725000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>6563000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>7194000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4044000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5712000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>65994000000</v>
+      </c>
+      <c r="C3">
         <v>64279000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>65638000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>69911000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>77176000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>77236000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>72064000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>70240000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>72642000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>68085000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>71188000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>62842000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>60547000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>59952000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>59729000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>58004000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>58298000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>59114000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>59605000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>59896000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>58897000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>59208000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>58589000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>60150000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>60108000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>61112000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>58217000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>55952000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>58827000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>59859000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>59185000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>58720000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>58603000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>58895000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>55229000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>55611000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>55323000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>54578000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>52712000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>53981000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>400000000</v>
+      </c>
+      <c r="C4">
         <v>412000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>422000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>444000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>454000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>447000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>454000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>456000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>459000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>456000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>450000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>454000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>457000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>467000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>470000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>474000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>475000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>472000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>467000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>468000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>466000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>467000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>484000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>488000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>501000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>528000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>544000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>541000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>550000000</v>
-      </c>
-      <c r="AD4">
-        <v>541000000</v>
       </c>
       <c r="AE4">
         <v>541000000</v>
       </c>
       <c r="AF4">
+        <v>541000000</v>
+      </c>
+      <c r="AG4">
         <v>531000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>532000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>524000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>562000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>583000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>594000000</v>
-      </c>
-      <c r="AL4">
-        <v>604000000</v>
       </c>
       <c r="AM4">
         <v>604000000</v>
       </c>
       <c r="AN4">
+        <v>604000000</v>
+      </c>
+      <c r="AO4">
         <v>618000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>19012000000</v>
+      </c>
+      <c r="C5">
         <v>19452000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>20829000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>18810000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>16986000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>16846000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>15837000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>15595000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15028000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>15090000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>12759000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>13041000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>12398000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>12429000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>12338000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>12212000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>12045000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>11862000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>11915000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>11971000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>12204000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>12342000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>12374000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>12338000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>12369000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>12484000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>12519000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>12514000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>12500000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>10612000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>10219000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>10085000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>10051000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>9468000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>9534000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>9487000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>9307000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>9488000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>9631000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>10286000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>645000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>635000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>642000000</v>
-      </c>
-      <c r="F6">
-        <v>635000000</v>
       </c>
       <c r="G6">
         <v>635000000</v>
@@ -1112,10 +1238,10 @@
         <v>635000000</v>
       </c>
       <c r="I6">
+        <v>635000000</v>
+      </c>
+      <c r="J6">
         <v>638000000</v>
-      </c>
-      <c r="J6">
-        <v>635000000</v>
       </c>
       <c r="K6">
         <v>635000000</v>
@@ -1124,918 +1250,939 @@
         <v>635000000</v>
       </c>
       <c r="M6">
+        <v>635000000</v>
+      </c>
+      <c r="N6">
         <v>637000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>5386000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5485000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4787000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3672000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3972000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4018000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4054000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3436000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3880000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3677000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3736000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3325000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>19412000000</v>
+      </c>
+      <c r="C8">
         <v>19864000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>21251000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>19254000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>17440000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>17293000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16291000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>16051000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>15487000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>15546000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>13209000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>13495000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>12855000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>12896000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>12808000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>12686000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>12520000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>12334000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>12382000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>12439000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>12670000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>12809000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>12858000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>12826000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>12870000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>13012000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>13063000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>13055000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>13050000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>11153000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>10760000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>10616000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>10583000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>9992000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>10096000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>10070000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>9901000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>10092000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>10235000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>10904000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>85406000000</v>
+      </c>
+      <c r="C9">
         <v>84143000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>86889000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>89165000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>94616000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>94529000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>88355000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>86291000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>88129000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>83631000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>84397000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>76337000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>73402000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>72848000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>72537000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>70690000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>70818000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>71448000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>71987000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>72335000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>71567000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>72017000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>71447000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>72976000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>72978000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>74124000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>71280000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>69007000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>71877000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>71012000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>69945000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>69336000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>69186000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>68887000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>65325000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>65681000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>65224000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>64670000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>62947000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>64885000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>3211000000</v>
+      </c>
+      <c r="C10">
         <v>508000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>752000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2263000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>71000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>51000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1733000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>935000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>44000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>84000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>58000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>48000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>10000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>509000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>541000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>41000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>25000000</v>
-      </c>
-      <c r="Z10">
-        <v>12000000</v>
       </c>
       <c r="AA10">
         <v>12000000</v>
       </c>
       <c r="AB10">
+        <v>12000000</v>
+      </c>
+      <c r="AC10">
         <v>514000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>23000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>109000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>56000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>80000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>116000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>202000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>176000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>160000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>253000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>226000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>131000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>58000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>71397000000</v>
+      </c>
+      <c r="C11">
         <v>73016000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>75765000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>77608000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>82339000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>82284000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>76066000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>73807000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>72869000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>68459000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>67720000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>57366000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>57295000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>56809000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>55537000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>54091000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>55561000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>56006000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>57210000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>57635000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>57903000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>57819000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>56781000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>58863000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>58985000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>59261000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>56374000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>56351000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>59853000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>58768000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>58260000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>57570000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>57486000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>57581000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>54170000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>53750000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>53292000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>52909000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>51255000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>52117000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>2593000000</v>
+      </c>
+      <c r="C12">
         <v>2534000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2059000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1839000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1584000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1605000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1504000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1480000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1482000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1534000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1602000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1872000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1440000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1477000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1386000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1407000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1243000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1154000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1057000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1058000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1069000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1018000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>997000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>989000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1012000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1234000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1279000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1389000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1383000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1413000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1265000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1500000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1507000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1002000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>990000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>954000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>986000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1001000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1049000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1023000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>508000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>60000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>60000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>752000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2938000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>805000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>77201000000</v>
+      </c>
+      <c r="C14">
         <v>76058000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>77824000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>79447000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>83923000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>83889000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>77570000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>75287000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>74351000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>70003000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>70074000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>61501000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>58806000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>58337000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>58656000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>56433000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>56848000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>57244000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>58325000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>58741000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>58982000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>59346000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>58319000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>59893000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>60022000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>60507000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>57665000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>58254000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>61259000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>60290000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>59581000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>59150000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>59109000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>58785000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>55336000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>54864000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>54531000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>54136000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>52435000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>53198000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3024000000</v>
+      </c>
+      <c r="C15">
         <v>3016000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2630000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2682000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2796000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2837000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2854000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2852000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5728000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5754000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6521000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>7434000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>7269000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>7311000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>6558000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6848000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6463000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>6418000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>5583000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>5594000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>4622000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>4637000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>5143000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>5153000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>5160000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>5890000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>5921000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3109000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3058000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>3100000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2841000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2686000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>2675000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2669000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2620000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3534000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3543000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>3565000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>3601000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>4699000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>28000000</v>
-      </c>
-      <c r="C16">
-        <v>29000000</v>
       </c>
       <c r="D16">
         <v>29000000</v>
@@ -2047,434 +2194,446 @@
         <v>29000000</v>
       </c>
       <c r="G16">
+        <v>29000000</v>
+      </c>
+      <c r="H16">
         <v>28000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>20000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>24000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>35000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>34000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>23000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>26000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>2506000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2030000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1810000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1199000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1576000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1476000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1460000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1114000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1499000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1568000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1849000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1047000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>3024000000</v>
+      </c>
+      <c r="C18">
         <v>3016000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2630000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2682000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2796000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2837000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2854000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2852000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5728000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5754000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6521000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>7434000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7269000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>7311000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6558000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>6848000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6463000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>6418000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>5583000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>5594000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4622000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4637000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>5143000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>5153000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>5160000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>5890000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>5921000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3109000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3058000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>3100000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>2841000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2686000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2675000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2669000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2620000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3534000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>3543000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>3565000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>3601000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>4699000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>80225000000</v>
+      </c>
+      <c r="C19">
         <v>79074000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>80454000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>82129000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>86719000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>86726000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>80424000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>78139000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>80079000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>75757000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>76595000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>68935000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>66075000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>65648000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>65214000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>63281000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>63311000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>63662000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>63908000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>64335000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>63604000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>63983000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>63462000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>65046000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>65182000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>66397000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>63586000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>61363000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>64317000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>63390000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>62422000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>61836000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>61784000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>61454000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>57956000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>58398000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>58074000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>57701000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>56036000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>57897000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>2220000000</v>
+      </c>
+      <c r="C20">
         <v>2209000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2204000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2194000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2175000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2170000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2163000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2183000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2185000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2179000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2173000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2168000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2174000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2172000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2168000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2159000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2148000000</v>
-      </c>
-      <c r="R20">
-        <v>2144000000</v>
       </c>
       <c r="S20">
         <v>2144000000</v>
       </c>
       <c r="T20">
+        <v>2144000000</v>
+      </c>
+      <c r="U20">
         <v>2134000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2122000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2112000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>2106000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>2135000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>2174000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>2165000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>2158000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>2173000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>2165000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>2158000000</v>
-      </c>
-      <c r="AF20">
-        <v>2188000000</v>
       </c>
       <c r="AG20">
         <v>2188000000</v>
       </c>
       <c r="AH20">
+        <v>2188000000</v>
+      </c>
+      <c r="AI20">
         <v>2183000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2175000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2182000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>2179000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>2171000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>2160000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>2157000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>394000000</v>
@@ -2504,15 +2663,18 @@
         <v>394000000</v>
       </c>
       <c r="K21">
+        <v>394000000</v>
+      </c>
+      <c r="L21">
         <v>395000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1141000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1141000000</v>
@@ -2578,10 +2740,10 @@
         <v>1141000000</v>
       </c>
       <c r="W22">
+        <v>1141000000</v>
+      </c>
+      <c r="X22">
         <v>2110000000</v>
-      </c>
-      <c r="X22">
-        <v>1141000000</v>
       </c>
       <c r="Y22">
         <v>1141000000</v>
@@ -2631,742 +2793,763 @@
       <c r="AN22">
         <v>1141000000</v>
       </c>
+      <c r="AO22">
+        <v>1141000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>11258000000</v>
+      </c>
+      <c r="C23">
         <v>11005000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>10752000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>10585000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>10494000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>10366000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>10202000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>9975000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>9727000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>9511000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>9404000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>9389000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>9538000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>9369000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9176000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>8979000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8781000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8587000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8374000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>8110000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>7887000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>7746000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>7580000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>7431000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>7331000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>7262000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7157000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>7097000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>7084000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>7007000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>6908000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>6841000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>6744000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>6631000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>6520000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>6414000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>6318000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>6239000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>6127000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>6020000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>6090000000</v>
+      </c>
+      <c r="C24">
         <v>6093000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6102000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>6105000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>6095000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>6061000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5849000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5436000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5461000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>5467000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5469000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>5470000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>5291000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>5146000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>4780000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>4357000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3954000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3475000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2991000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2832000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2736000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2606000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>2485000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>2369000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>2428000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>2558000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>2474000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>2424000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>2409000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>2346000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>2288000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>2300000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>2259000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2205000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2163000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>2129000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>2097000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>2041000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1979000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1920000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>4787000000</v>
+      </c>
+      <c r="C25">
         <v>4675000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>6041000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>6642000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7503000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7409000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>7537000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7758000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>7656000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>7480000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>7407000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>7402000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>7327000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>7200000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>7323000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>7409000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>7507000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>7786000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>8079000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>8000000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>7963000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>8034000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>6844000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>7930000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>7796000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>7727000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>7694000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>7644000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>7560000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>7622000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>7523000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>7500000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>7402000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>7433000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>7369000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>7283000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>7150000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>6969000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>6911000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>6988000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>5181000000</v>
+      </c>
+      <c r="C26">
         <v>5069000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>6435000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>7036000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7897000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7803000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7931000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>8152000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8050000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>7874000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>7802000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>7402000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>7327000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>7200000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>7323000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>7409000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>7507000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>7786000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>8079000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>8000000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>7963000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>8034000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>7985000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>7930000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>7796000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>7727000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>7694000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>7644000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>7560000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>7622000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>7523000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>7500000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>7402000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>7433000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>7369000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>7283000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>7150000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>6969000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>6911000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>6988000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>85406000000</v>
+      </c>
+      <c r="C27">
         <v>84143000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>86889000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>89165000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>94616000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>94529000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>88355000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>86291000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>88129000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>83631000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>84397000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>76337000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>73402000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>72848000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>72537000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>70690000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>70818000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>71448000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>71987000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>72335000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>71567000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>72017000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>71447000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>72976000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>72978000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>74124000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>71280000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>69007000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>71877000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>71012000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>69945000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>69336000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>69186000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>68887000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>65325000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>65681000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>65224000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>64670000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>62947000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>64885000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>130966900</v>
+      </c>
+      <c r="C28">
         <v>130921000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>130777000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>130729000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>130688000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>131006000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>133917000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>139585000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>139167000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>139069000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>139040000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>139037000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>142096000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>144136000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>149797000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>155418000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>160084000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>165941000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>170910000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>172474000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>172858000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>174300000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>175913000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>177432000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>175314000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>172068000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>173917000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>175078000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>175708000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>177154000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>178361000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>178050000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>179019000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>180172000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>180970000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>181672000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>182304000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>183681000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>185166000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>186803000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>4000</v>
@@ -3398,370 +3581,382 @@
       <c r="K29">
         <v>4000</v>
       </c>
+      <c r="L29">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>5181000000</v>
+      </c>
+      <c r="C30">
         <v>5069000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6435000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>7036000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7897000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7803000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>7931000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>8152000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>8050000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>7874000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>7802000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>7402000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>7327000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>7200000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>7323000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>7409000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>7507000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>7786000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>8079000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>8000000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>7963000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>8034000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>7985000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7930000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>7796000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>7727000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>7694000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>7644000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>7560000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>7622000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>7523000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>7500000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>7402000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>7433000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>7369000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>7283000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>7150000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>6969000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>6911000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>6988000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-3415000000</v>
+      </c>
+      <c r="C31">
         <v>-2605000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-5063000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-11049000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-20020000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-20939000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-13830000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-12195000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-10151000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-5537000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-6191000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>5379000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2101000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3048000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2837000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3231000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1768000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>443000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-211000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-1375000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-1319000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-1659000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-578000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-3258000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-2150000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-2242000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1711000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>13000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-3202000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-4207000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-3243000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-3377000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-3495000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-5230000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-1383000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-2191000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-3020000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-3629000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-443000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-1013000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>3024000000</v>
+      </c>
+      <c r="C32">
         <v>3524000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2630000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2682000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2856000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2837000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2854000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2852000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5788000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5764000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>7273000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>10372000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>8074000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>7311000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>6558000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>6848000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>6463000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>6418000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>5583000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>5594000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>4622000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>4637000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>5143000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>5153000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>5160000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>5890000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>5921000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>3109000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>3058000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>3100000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2841000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2686000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2675000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2669000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2620000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>3534000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>3543000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>3565000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>3601000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>4699000000</v>
       </c>
     </row>
